--- a/products/10.xlsx
+++ b/products/10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Работа (от 1000р клад)</t>
   </si>
   <si>
-    <t>10 C4(Заказная позиция)</t>
-  </si>
-  <si>
-    <t>20 C4(Заказная позиция)</t>
-  </si>
-  <si>
     <t>Ck1 White Diamond</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
     <t>Tv10 C4(Готовый)</t>
   </si>
   <si>
-    <t>Tv50 C4(Готовый)</t>
-  </si>
-  <si>
     <t>Ck5 White Diamond</t>
   </si>
   <si>
@@ -49,13 +40,16 @@
   </si>
   <si>
     <t>Tv2 C4</t>
+  </si>
+  <si>
+    <t>Ck10 White Diamond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,19 +359,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,20 +382,20 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="C2">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>6000</v>
@@ -410,81 +404,59 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="C4">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C5">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>28500</v>
-      </c>
-      <c r="C6">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
       <c r="B7">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="C7">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="C8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1600</v>
-      </c>
-      <c r="C10">
-        <v>211</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
